--- a/Analys/SubmissionData.xlsx
+++ b/Analys/SubmissionData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dpu_lat/Documents/Python/Xtern/Analys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83265D1F-C359-AB4D-9B59-87BE030DCDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01045DA-7CCB-CC43-AD8C-D9D5F969BC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CoworkingPlaces" sheetId="1" r:id="rId1"/>
@@ -2117,7 +2117,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-US" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -2367,7 +2367,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-US" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2448,7 +2448,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-US" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2541,7 +2541,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-US" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -2791,7 +2791,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-US" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2872,7 +2872,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-US" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2965,7 +2965,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr lang="en-US" b="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -3215,7 +3215,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-US" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -3296,7 +3296,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr lang="en-US" b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -3778,8 +3778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView zoomScale="93" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6558,14 +6558,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="4" max="4" width="36.5" customWidth="1"/>
     <col min="5" max="5" width="49.83203125" customWidth="1"/>
     <col min="6" max="6" width="13.83203125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
@@ -8100,7 +8100,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
